--- a/Docs/exercises.xlsx
+++ b/Docs/exercises.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\TFG\TFG\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C6E1D19-D04A-47D5-9451-0494AA222736}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6566B2-184B-423C-B055-65EF7A052023}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{0A15DD2B-7074-47B9-AFB5-56675D9775C0}"/>
+    <workbookView minimized="1" xWindow="17355" yWindow="3930" windowWidth="15375" windowHeight="7875" xr2:uid="{0A15DD2B-7074-47B9-AFB5-56675D9775C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>Lower Body</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Pushdown</t>
   </si>
   <si>
-    <t>Ticeps extension</t>
-  </si>
-  <si>
     <t>Biceps curl</t>
   </si>
   <si>
@@ -181,6 +178,21 @@
   </si>
   <si>
     <t>Forearm Bench</t>
+  </si>
+  <si>
+    <t>Ticeps extension Center</t>
+  </si>
+  <si>
+    <t>Ticeps extension Over Head</t>
+  </si>
+  <si>
+    <t>Rope overhead</t>
+  </si>
+  <si>
+    <t>Sat down Row</t>
+  </si>
+  <si>
+    <t>Pull Down Center</t>
   </si>
 </sst>
 </file>
@@ -619,16 +631,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DC0D78-2EC9-4FAF-BCF0-671C36E33055}">
-  <dimension ref="B3:P40"/>
+  <dimension ref="B3:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="16" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -833,7 +845,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -909,7 +921,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -947,7 +959,7 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -956,7 +968,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -966,7 +978,7 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -977,34 +989,34 @@
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1012,37 +1024,37 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -1051,17 +1063,17 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="7"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
-      <c r="P23" s="6"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1074,13 +1086,13 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
       <c r="M24" s="7"/>
-      <c r="N24" s="8"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1089,36 +1101,36 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="6"/>
+      <c r="M25" s="7"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
+      <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -1127,55 +1139,55 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
+      <c r="P27" s="6"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="6"/>
+      <c r="B28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
+      <c r="B29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1188,13 +1200,13 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="6"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1207,13 +1219,13 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="6"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1226,13 +1238,13 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="6"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1251,7 +1263,7 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1261,16 +1273,16 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="7"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="6"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1280,73 +1292,73 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="7"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="6"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="6"/>
+      <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="6"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
+      <c r="B38" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1356,31 +1368,107 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="7"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="7"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
